--- a/Team-Data/2013-14/12-10-2013-14.xlsx
+++ b/Team-Data/2013-14/12-10-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,55 +733,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.524</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O2" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="P2" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="S2" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
         <v>24.4</v>
@@ -723,34 +790,34 @@
         <v>14.7</v>
       </c>
       <c r="W2" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA2" t="n">
         <v>19.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -759,13 +826,13 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
@@ -774,10 +841,10 @@
         <v>12</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
         <v>20</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -798,16 +865,16 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.435</v>
+        <v>0.455</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
@@ -869,64 +936,64 @@
         <v>80.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L3" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.361</v>
+        <v>0.353</v>
       </c>
       <c r="O3" t="n">
         <v>15.5</v>
       </c>
       <c r="P3" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S3" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>41.1</v>
+        <v>41.4</v>
       </c>
       <c r="U3" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="V3" t="n">
-        <v>16.1</v>
+        <v>16.4</v>
       </c>
       <c r="W3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
@@ -935,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
@@ -953,16 +1020,16 @@
         <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
@@ -971,25 +1038,25 @@
         <v>22</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>21</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -1030,52 +1097,52 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="J4" t="n">
-        <v>78.90000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.437</v>
+        <v>0.431</v>
       </c>
       <c r="L4" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>18</v>
+        <v>18.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O4" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P4" t="n">
         <v>26.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T4" t="n">
         <v>41.2</v>
@@ -1087,40 +1154,40 @@
         <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="AA4" t="n">
         <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.90000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-7.1</v>
+        <v>-7.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,19 +1196,19 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
         <v>6</v>
@@ -1156,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
         <v>24</v>
@@ -1165,25 +1232,25 @@
         <v>7</v>
       </c>
       <c r="AW4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA4" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>8</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-1.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1338,10 +1405,10 @@
         <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1350,13 +1417,13 @@
         <v>28</v>
       </c>
       <c r="AX5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="H6" t="n">
         <v>49.1</v>
       </c>
       <c r="I6" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
         <v>82.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.428</v>
+        <v>0.431</v>
       </c>
       <c r="L6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M6" t="n">
         <v>15.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.329</v>
+        <v>0.336</v>
       </c>
       <c r="O6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.776</v>
+        <v>0.781</v>
       </c>
       <c r="R6" t="n">
         <v>12.6</v>
       </c>
       <c r="S6" t="n">
-        <v>33.5</v>
+        <v>33.8</v>
       </c>
       <c r="T6" t="n">
-        <v>46.2</v>
+        <v>46.4</v>
       </c>
       <c r="U6" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V6" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W6" t="n">
         <v>6.2</v>
       </c>
       <c r="X6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1487,13 +1554,13 @@
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1502,16 +1569,16 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
         <v>14</v>
       </c>
-      <c r="AP6" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1520,31 +1587,31 @@
         <v>7</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC6" t="n">
         <v>15</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.381</v>
+        <v>0.35</v>
       </c>
       <c r="H7" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I7" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>83.90000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.421</v>
+        <v>0.415</v>
       </c>
       <c r="L7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M7" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.348</v>
+        <v>0.342</v>
       </c>
       <c r="O7" t="n">
         <v>15.8</v>
@@ -1615,67 +1682,67 @@
         <v>21.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="U7" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="V7" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="AD7" t="n">
         <v>16</v>
       </c>
-      <c r="W7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1693,7 +1760,7 @@
         <v>22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
         <v>10</v>
@@ -1702,31 +1769,31 @@
         <v>16</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV7" t="n">
         <v>21</v>
       </c>
       <c r="AW7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX7" t="n">
         <v>17</v>
       </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
         <v>23</v>
       </c>
       <c r="BB7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1857,7 +1924,7 @@
         <v>7</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1869,7 +1936,7 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>24</v>
@@ -1890,25 +1957,25 @@
         <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
         <v>26</v>
       </c>
       <c r="BB8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2039,16 +2106,16 @@
         <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -2063,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2075,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2084,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -2122,118 +2189,118 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.455</v>
+        <v>0.476</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J10" t="n">
         <v>84.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8</v>
+        <v>17.2</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.672</v>
+        <v>0.677</v>
       </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V10" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
         <v>28</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>9</v>
@@ -2245,22 +2312,22 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2269,13 +2336,13 @@
         <v>11</v>
       </c>
       <c r="BA10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB10" t="n">
         <v>16</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2442,10 +2509,10 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>26</v>
@@ -2454,10 +2521,10 @@
         <v>15</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>6.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2630,7 +2697,7 @@
         <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -2668,46 +2735,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>0.864</v>
+        <v>0.857</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J13" t="n">
-        <v>79.59999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O13" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.787</v>
+        <v>0.793</v>
       </c>
       <c r="R13" t="n">
         <v>10.1</v>
@@ -2722,31 +2789,31 @@
         <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="W13" t="n">
         <v>7.4</v>
       </c>
       <c r="X13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
         <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2767,13 +2834,13 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
         <v>19</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>20</v>
       </c>
       <c r="AN13" t="n">
         <v>12</v>
@@ -2782,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2794,31 +2861,31 @@
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU13" t="n">
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>4.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
@@ -2940,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>8</v>
@@ -2949,16 +3016,16 @@
         <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
@@ -2976,7 +3043,7 @@
         <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2985,7 +3052,7 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>21</v>
@@ -2994,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
@@ -3050,85 +3117,85 @@
         <v>37.9</v>
       </c>
       <c r="J15" t="n">
-        <v>85.59999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L15" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="O15" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="R15" t="n">
         <v>10.3</v>
       </c>
-      <c r="M15" t="n">
-        <v>26</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="O15" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.733</v>
-      </c>
-      <c r="R15" t="n">
-        <v>10.1</v>
-      </c>
       <c r="S15" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="T15" t="n">
-        <v>43</v>
+        <v>43.6</v>
       </c>
       <c r="U15" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="V15" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
         <v>7</v>
       </c>
       <c r="X15" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="AC15" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK15" t="n">
         <v>19</v>
@@ -3140,13 +3207,13 @@
         <v>2</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP15" t="n">
         <v>27</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>25</v>
       </c>
       <c r="AQ15" t="n">
         <v>24</v>
@@ -3155,16 +3222,16 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>25</v>
@@ -3173,19 +3240,19 @@
         <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB15" t="n">
         <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3301,10 +3368,10 @@
         <v>11</v>
       </c>
       <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
         <v>12</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -3313,7 +3380,7 @@
         <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,22 +3389,22 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>23</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
         <v>10</v>
       </c>
       <c r="AR16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
@@ -3349,7 +3416,7 @@
         <v>5</v>
       </c>
       <c r="AW16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
@@ -3358,13 +3425,13 @@
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -3396,70 +3463,70 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.727</v>
+        <v>0.762</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.504</v>
+        <v>0.508</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="M17" t="n">
         <v>21.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.386</v>
+        <v>0.395</v>
       </c>
       <c r="O17" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P17" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.765</v>
       </c>
       <c r="R17" t="n">
         <v>6.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="U17" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="V17" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Z17" t="n">
         <v>20.7</v>
@@ -3468,13 +3535,13 @@
         <v>21.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3528,10 +3595,10 @@
         <v>5</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
         <v>8</v>
@@ -3546,7 +3613,7 @@
         <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -3578,58 +3645,58 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.238</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I18" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="J18" t="n">
-        <v>81.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.418</v>
+        <v>0.419</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="M18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
-        <v>0.371</v>
+        <v>0.376</v>
       </c>
       <c r="O18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P18" t="n">
         <v>19.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
         <v>10.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
         <v>39.9</v>
       </c>
       <c r="U18" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="V18" t="n">
         <v>16.4</v>
@@ -3638,28 +3705,28 @@
         <v>6.9</v>
       </c>
       <c r="X18" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8</v>
+        <v>-8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF18" t="n">
         <v>29</v>
@@ -3671,25 +3738,25 @@
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3698,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
         <v>27</v>
@@ -3707,10 +3774,10 @@
         <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>26</v>
@@ -3719,13 +3786,13 @@
         <v>7</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -3760,115 +3827,115 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.476</v>
+        <v>0.45</v>
       </c>
       <c r="H19" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J19" t="n">
-        <v>89</v>
+        <v>89.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.426</v>
+        <v>0.423</v>
       </c>
       <c r="L19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
         <v>24</v>
       </c>
       <c r="N19" t="n">
-        <v>0.329</v>
+        <v>0.323</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="P19" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="R19" t="n">
         <v>13.3</v>
       </c>
       <c r="S19" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T19" t="n">
         <v>45.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="V19" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W19" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X19" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.5</v>
+        <v>104.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM19" t="n">
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3883,19 +3950,19 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>6</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AW19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3907,13 +3974,13 @@
         <v>2</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
         <v>11</v>
@@ -4044,19 +4111,19 @@
         <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
         <v>9</v>
@@ -4065,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
         <v>12</v>
@@ -4077,22 +4144,22 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA20" t="n">
         <v>16</v>
       </c>
       <c r="BB20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -4124,91 +4191,91 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.25</v>
+        <v>0.263</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
       <c r="J21" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.432</v>
+        <v>0.43</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O21" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="P21" t="n">
-        <v>17.2</v>
+        <v>17.8</v>
       </c>
       <c r="Q21" t="n">
         <v>0.77</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="T21" t="n">
-        <v>39</v>
+        <v>39.4</v>
       </c>
       <c r="U21" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="V21" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AB21" t="n">
         <v>94.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
       </c>
       <c r="AF21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>28</v>
@@ -4223,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4247,7 +4314,7 @@
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>29</v>
@@ -4259,19 +4326,19 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA21" t="n">
         <v>28</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>29</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4324,40 +4391,40 @@
         <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M22" t="n">
         <v>18.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.331</v>
+        <v>0.336</v>
       </c>
       <c r="O22" t="n">
         <v>21.9</v>
       </c>
       <c r="P22" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.819</v>
       </c>
       <c r="R22" t="n">
         <v>11.2</v>
       </c>
       <c r="S22" t="n">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="T22" t="n">
-        <v>47.1</v>
+        <v>46.7</v>
       </c>
       <c r="U22" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="V22" t="n">
         <v>16.3</v>
@@ -4369,25 +4436,25 @@
         <v>6.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4405,7 +4472,7 @@
         <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
         <v>26</v>
@@ -4414,7 +4481,7 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4423,7 +4490,7 @@
         <v>5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>14</v>
@@ -4435,19 +4502,19 @@
         <v>2</v>
       </c>
       <c r="AU22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW22" t="n">
         <v>17</v>
       </c>
-      <c r="AV22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>16</v>
-      </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4456,7 +4523,7 @@
         <v>14</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -4566,28 +4633,28 @@
         <v>-4.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
         <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>15</v>
@@ -4596,7 +4663,7 @@
         <v>16</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
         <v>20</v>
@@ -4623,16 +4690,16 @@
         <v>26</v>
       </c>
       <c r="AW23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY23" t="n">
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH24" t="n">
         <v>1</v>
@@ -4766,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>18</v>
@@ -4781,10 +4848,10 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4796,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4814,16 +4881,16 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
         <v>9</v>
       </c>
       <c r="G25" t="n">
-        <v>0.571</v>
+        <v>0.55</v>
       </c>
       <c r="H25" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>37.7</v>
       </c>
       <c r="J25" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L25" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O25" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P25" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.745</v>
+        <v>0.738</v>
       </c>
       <c r="R25" t="n">
         <v>10.7</v>
@@ -4903,19 +4970,19 @@
         <v>41.7</v>
       </c>
       <c r="U25" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="V25" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z25" t="n">
         <v>21.2</v>
@@ -4924,16 +4991,16 @@
         <v>20.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
@@ -4945,13 +5012,13 @@
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -4966,16 +5033,16 @@
         <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
         <v>19</v>
@@ -4984,22 +5051,22 @@
         <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW25" t="n">
         <v>10</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
         <v>18</v>
       </c>
       <c r="BA25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>6.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
@@ -5124,16 +5191,16 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>4</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5151,7 +5218,7 @@
         <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26" t="n">
         <v>5</v>
@@ -5163,7 +5230,7 @@
         <v>7</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
@@ -5315,16 +5382,16 @@
         <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
         <v>13</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
         <v>9</v>
@@ -5333,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5342,7 +5409,7 @@
         <v>17</v>
       </c>
       <c r="AT27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU27" t="n">
         <v>16</v>
@@ -5369,7 +5436,7 @@
         <v>17</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>0.789</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="J28" t="n">
         <v>83.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.491</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="O28" t="n">
         <v>12.3</v>
@@ -5437,19 +5504,19 @@
         <v>16.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.752</v>
+        <v>0.749</v>
       </c>
       <c r="R28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>42</v>
+        <v>42.3</v>
       </c>
       <c r="U28" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
@@ -5467,19 +5534,19 @@
         <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.6</v>
+        <v>101.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
@@ -5500,13 +5567,13 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY28" t="n">
         <v>8</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -5580,61 +5647,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>0.35</v>
+        <v>0.368</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.429</v>
+        <v>0.427</v>
       </c>
       <c r="L29" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="M29" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.334</v>
+        <v>0.328</v>
       </c>
       <c r="O29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P29" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.782</v>
+        <v>0.778</v>
       </c>
       <c r="R29" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S29" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U29" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="V29" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W29" t="n">
         <v>7.1</v>
@@ -5643,97 +5710,97 @@
         <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="AA29" t="n">
         <v>22.9</v>
       </c>
-      <c r="AA29" t="n">
-        <v>22.7</v>
-      </c>
       <c r="AB29" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="AD29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE29" t="n">
         <v>22</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
         <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP29" t="n">
         <v>8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR29" t="n">
         <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
         <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF30" t="n">
         <v>30</v>
@@ -5861,7 +5928,7 @@
         <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5870,22 +5937,22 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP30" t="n">
         <v>16</v>
       </c>
-      <c r="AP30" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT30" t="n">
         <v>25</v>
@@ -5909,7 +5976,7 @@
         <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>19</v>
@@ -6058,13 +6125,13 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>18</v>
@@ -6076,28 +6143,28 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW31" t="n">
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-10-2013-14</t>
+          <t>2013-12-10</t>
         </is>
       </c>
     </row>
